--- a/Python/output/case-study/Trans_SA_WSresults.xlsx
+++ b/Python/output/case-study/Trans_SA_WSresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{864B669A-205E-534B-9CF6-477B95AC3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0BA86-1ED8-434B-86A2-ACF2F1F4DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{24C1F4E4-9607-7342-B8D5-1E9DE0A2E006}"/>
   </bookViews>
@@ -904,7 +904,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,16 +1058,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3463822.8860333902</v>
+        <v>3114989.22364912</v>
       </c>
       <c r="E7">
-        <v>391154.36511009</v>
+        <v>303119.49667754403</v>
       </c>
       <c r="F7">
-        <v>371.81054210662802</v>
+        <v>1812.8986291885301</v>
       </c>
       <c r="G7">
-        <v>2.0155289173126198</v>
+        <v>1.9776368141174301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1081,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>3714946.9230481801</v>
+        <v>3475727.40093356</v>
       </c>
       <c r="E8">
-        <v>389236.736338544</v>
+        <v>241846.49400429099</v>
       </c>
       <c r="F8">
-        <v>374.190623998641</v>
+        <v>1798.13025569915</v>
       </c>
       <c r="G8">
-        <v>2.0892848968505802</v>
+        <v>2.1123890876770002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1104,16 +1104,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3541816.5970113901</v>
+        <v>3409616.20164727</v>
       </c>
       <c r="E9">
-        <v>327486.55561299098</v>
+        <v>232380.14693585801</v>
       </c>
       <c r="F9">
-        <v>372.35910701751698</v>
+        <v>1774.56579399108</v>
       </c>
       <c r="G9">
-        <v>2.1058261394500701</v>
+        <v>2.1267528533935498</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,16 +1127,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>3533115.96900278</v>
+        <v>3404937.3344251299</v>
       </c>
       <c r="E10">
-        <v>327398.68060133501</v>
+        <v>228140.40795237501</v>
       </c>
       <c r="F10">
-        <v>369.31860899925198</v>
+        <v>1787.6272876262601</v>
       </c>
       <c r="G10">
-        <v>2.09365510940551</v>
+        <v>2.12704205513</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,16 +1150,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>3541027.51164205</v>
+        <v>3412983.7048560302</v>
       </c>
       <c r="E11">
-        <v>327592.36932961002</v>
+        <v>228295.97833523899</v>
       </c>
       <c r="F11">
-        <v>371.49459505081097</v>
+        <v>1860.6812698840999</v>
       </c>
       <c r="G11">
-        <v>2.0894749164581299</v>
+        <v>2.1135787963867099</v>
       </c>
     </row>
   </sheetData>
